--- a/Framework_API_POC/test-output/Excel/ExtentExcel.xlsx
+++ b/Framework_API_POC/test-output/Excel/ExtentExcel.xlsx
@@ -187,16 +187,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Jan 09, 2025 12:43:57 pm</t>
-  </si>
-  <si>
-    <t>Jan 09, 2025 12:43:38 pm</t>
-  </si>
-  <si>
-    <t>Jan 09, 2025 12:43:54 pm</t>
-  </si>
-  <si>
-    <t>16.936 s</t>
+    <t>Jan 14, 2025 10:13:33 am</t>
+  </si>
+  <si>
+    <t>Jan 14, 2025 10:13:14 am</t>
+  </si>
+  <si>
+    <t>Jan 14, 2025 10:13:30 am</t>
+  </si>
+  <si>
+    <t>15.739 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -205,7 +205,7 @@
     <t>Create a new booking</t>
   </si>
   <si>
-    <t>4.919 s</t>
+    <t>4.256 s</t>
   </si>
   <si>
     <t>Book a Hotel</t>
@@ -214,22 +214,22 @@
     <t>Retrieve the created booking</t>
   </si>
   <si>
-    <t>4.052 s</t>
+    <t>3.107 s</t>
   </si>
   <si>
     <t>Update the created booking</t>
   </si>
   <si>
-    <t>3.579 s</t>
+    <t>4.499 s</t>
   </si>
   <si>
     <t>Delete the created booking</t>
   </si>
   <si>
-    <t>3.787 s</t>
-  </si>
-  <si>
-    <t>16.352 s</t>
+    <t>3.050 s</t>
+  </si>
+  <si>
+    <t>14.932 s</t>
   </si>
 </sst>
 </file>
@@ -5790,7 +5790,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="D597" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="EA2D" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
